--- a/TP2/Ej1/Mediciones No inversor/Zin/Caso1.xlsx
+++ b/TP2/Ej1/Mediciones No inversor/Zin/Caso1.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\GitHub\TC\TP2\Ej1\Mediciones No inversor\Zin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAB8B55-5C63-4C9B-8819-BDFFB1E35B46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB032B72-542E-4E2A-8483-38D3E6927456}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -354,7 +360,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,7 +381,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>13.7</v>
+        <v>36312.927568807543</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -386,7 +392,7 @@
         <v>1000</v>
       </c>
       <c r="B3">
-        <v>13.7</v>
+        <v>36312.927568807543</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -397,10 +403,10 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>13.7</v>
+        <v>36312.927568807543</v>
       </c>
       <c r="C4">
-        <v>-3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -408,10 +414,10 @@
         <v>4000</v>
       </c>
       <c r="B5">
-        <v>13.7</v>
+        <v>36312.927568807543</v>
       </c>
       <c r="C5">
-        <v>-5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -419,10 +425,10 @@
         <v>6000</v>
       </c>
       <c r="B6">
-        <v>13.7</v>
+        <v>36312.927568807543</v>
       </c>
       <c r="C6">
-        <v>-6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -430,10 +436,10 @@
         <v>6300</v>
       </c>
       <c r="B7">
-        <v>13.6</v>
+        <v>35897.2569241979</v>
       </c>
       <c r="C7">
-        <v>-7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -441,10 +447,10 @@
         <v>7000</v>
       </c>
       <c r="B8">
-        <v>13.6</v>
+        <v>35897.2569241979</v>
       </c>
       <c r="C8">
-        <v>-7.7</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -452,10 +458,10 @@
         <v>7500</v>
       </c>
       <c r="B9">
-        <v>13.6</v>
+        <v>35897.2569241979</v>
       </c>
       <c r="C9">
-        <v>-8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -463,10 +469,10 @@
         <v>9000</v>
       </c>
       <c r="B10">
-        <v>13.5</v>
+        <v>35486.344422111062</v>
       </c>
       <c r="C10">
-        <v>-8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -474,10 +480,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>13.5</v>
+        <v>35486.344422111062</v>
       </c>
       <c r="C11">
-        <v>-8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -485,10 +491,10 @@
         <v>12000</v>
       </c>
       <c r="B12">
-        <v>13.4</v>
+        <v>35080.135596539956</v>
       </c>
       <c r="C12">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -496,10 +502,10 @@
         <v>13000</v>
       </c>
       <c r="B13">
-        <v>13.4</v>
+        <v>35080.135596539956</v>
       </c>
       <c r="C13">
-        <v>-12</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -507,10 +513,10 @@
         <v>14000</v>
       </c>
       <c r="B14">
-        <v>13.3</v>
+        <v>34678.576604944552</v>
       </c>
       <c r="C14">
-        <v>-13</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -518,10 +524,10 @@
         <v>15000</v>
       </c>
       <c r="B15">
-        <v>13.3</v>
+        <v>34678.576604944552</v>
       </c>
       <c r="C15">
-        <v>-14.8</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,10 +535,10 @@
         <v>16000</v>
       </c>
       <c r="B16">
-        <v>13.2</v>
+        <v>34281.614221115662</v>
       </c>
       <c r="C16">
-        <v>-16</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -540,10 +546,10 @@
         <v>17000</v>
       </c>
       <c r="B17">
-        <v>13.2</v>
+        <v>34281.614221115662</v>
       </c>
       <c r="C17">
-        <v>-17</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -551,10 +557,10 @@
         <v>18000</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>33501.269411322326</v>
       </c>
       <c r="C18">
-        <v>-18</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,10 +568,10 @@
         <v>19000</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>33501.269411322326</v>
       </c>
       <c r="C19">
-        <v>-20</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,10 +579,10 @@
         <v>20000</v>
       </c>
       <c r="B20">
-        <v>12.8</v>
+        <v>32738.687418012483</v>
       </c>
       <c r="C20">
-        <v>-21</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -584,10 +590,10 @@
         <v>25000</v>
       </c>
       <c r="B21">
-        <v>12.7</v>
+        <v>32363.930762082487</v>
       </c>
       <c r="C21">
-        <v>-22</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -595,10 +601,10 @@
         <v>27000</v>
       </c>
       <c r="B22">
-        <v>12.5</v>
+        <v>31627.23775714371</v>
       </c>
       <c r="C22">
-        <v>-22</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,10 +612,10 @@
         <v>30000</v>
       </c>
       <c r="B23">
-        <v>12.3</v>
+        <v>30907.313932299807</v>
       </c>
       <c r="C23">
-        <v>-23</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,10 +623,10 @@
         <v>34000</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>29858.037791512339</v>
       </c>
       <c r="C24">
-        <v>-26</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -628,10 +634,10 @@
         <v>35000</v>
       </c>
       <c r="B25">
-        <v>11.9</v>
+        <v>29516.255659183407</v>
       </c>
       <c r="C25">
-        <v>-28</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,10 +645,10 @@
         <v>40000</v>
       </c>
       <c r="B26">
-        <v>11.4</v>
+        <v>27865.142182287989</v>
       </c>
       <c r="C26">
-        <v>-29</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,10 +656,10 @@
         <v>44000</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>26611.004192518165</v>
       </c>
       <c r="C27">
-        <v>-32</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,10 +667,10 @@
         <v>50000</v>
       </c>
       <c r="B28">
-        <v>10.5</v>
+        <v>25122.407936837131</v>
       </c>
       <c r="C28">
-        <v>-33</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,10 +678,10 @@
         <v>55000</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>23717.082451262861</v>
       </c>
       <c r="C29">
-        <v>-36</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -683,10 +689,10 @@
         <v>60000</v>
       </c>
       <c r="B30">
-        <v>9.6</v>
+        <v>22649.63790301514</v>
       </c>
       <c r="C30">
-        <v>-38</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,10 +700,10 @@
         <v>66000</v>
       </c>
       <c r="B31">
-        <v>9.1</v>
+        <v>21382.637006279343</v>
       </c>
       <c r="C31">
-        <v>-39</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,10 +711,10 @@
         <v>72000</v>
       </c>
       <c r="B32">
-        <v>8.6</v>
+        <v>20186.51102945186</v>
       </c>
       <c r="C32">
-        <v>-41</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,10 +722,10 @@
         <v>80000</v>
       </c>
       <c r="B33">
-        <v>8.1</v>
+        <v>19057.295291619819</v>
       </c>
       <c r="C33">
-        <v>-41</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,10 +733,10 @@
         <v>85000</v>
       </c>
       <c r="B34">
-        <v>7.7</v>
+        <v>18199.575713118149</v>
       </c>
       <c r="C34">
-        <v>-42.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,10 +744,10 @@
         <v>90000</v>
       </c>
       <c r="B35">
-        <v>7.4</v>
+        <v>17581.716114899449</v>
       </c>
       <c r="C35">
-        <v>-43</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,10 +755,10 @@
         <v>100000</v>
       </c>
       <c r="B36">
-        <v>6.8</v>
+        <v>16408.212179621652</v>
       </c>
       <c r="C36">
-        <v>-42</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,10 +766,10 @@
         <v>110000</v>
       </c>
       <c r="B37">
-        <v>6.2</v>
+        <v>15313.034585021507</v>
       </c>
       <c r="C37">
-        <v>-41</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,10 +777,10 @@
         <v>130000</v>
       </c>
       <c r="B38">
-        <v>5.3</v>
+        <v>13805.790011017185</v>
       </c>
       <c r="C38">
-        <v>-40</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,10 +788,10 @@
         <v>150000</v>
       </c>
       <c r="B39">
-        <v>4.5</v>
+        <v>12591.030135919222</v>
       </c>
       <c r="C39">
-        <v>-40</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,10 +799,10 @@
         <v>200000</v>
       </c>
       <c r="B40">
-        <v>3.1</v>
+        <v>10716.704688833295</v>
       </c>
       <c r="C40">
-        <v>-39</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,10 +810,10 @@
         <v>250000</v>
       </c>
       <c r="B41">
-        <v>2.2999999999999998</v>
+        <v>9773.7508383922541</v>
       </c>
       <c r="C41">
-        <v>-35</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,10 +821,10 @@
         <v>300000</v>
       </c>
       <c r="B42">
-        <v>1.8</v>
+        <v>9227.0157810928704</v>
       </c>
       <c r="C42">
-        <v>-31</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,10 +832,10 @@
         <v>330000</v>
       </c>
       <c r="B43">
-        <v>1.5</v>
+        <v>8913.7667057776489</v>
       </c>
       <c r="C43">
-        <v>-26</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,10 +843,10 @@
         <v>360000</v>
       </c>
       <c r="B44">
-        <v>1.3</v>
+        <v>8710.8646038025818</v>
       </c>
       <c r="C44">
-        <v>-26</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,10 +854,10 @@
         <v>400000</v>
       </c>
       <c r="B45">
-        <v>1.2</v>
+        <v>8611.1521612266315</v>
       </c>
       <c r="C45">
-        <v>-23</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,10 +865,10 @@
         <v>500000</v>
       </c>
       <c r="B46">
-        <v>0.8</v>
+        <v>8223.5864710739006</v>
       </c>
       <c r="C46">
-        <v>-20</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,10 +876,10 @@
         <v>600000</v>
       </c>
       <c r="B47">
-        <v>0.7</v>
+        <v>8129.451855159039</v>
       </c>
       <c r="C47">
-        <v>-18</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
